--- a/Expedia Templates/Stay Beyond/IMPORT 4 DDR.xlsx
+++ b/Expedia Templates/Stay Beyond/IMPORT 4 DDR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/Expedia Templates/Stay Beyond/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD61A824-F22B-F04C-AA69-9E192607F29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85E6EF1-3812-AB40-B5EC-795932AA8D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20380" yWindow="6560" windowWidth="27660" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,7 +260,7 @@
     <t>Action Type</t>
   </si>
   <si>
-    <t>06/26/2024</t>
+    <t>06/06/2079</t>
   </si>
 </sst>
 </file>
@@ -372,13 +372,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,9 +661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4471E7CE-1045-4194-9DBB-AC66FE7F5714}">
   <dimension ref="A1:AP8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -842,8 +842,8 @@
     </row>
     <row r="2" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="6" t="s">
         <v>67</v>
       </c>
@@ -878,10 +878,10 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="16" t="s">
         <v>75</v>
       </c>
       <c r="R2" s="10">
@@ -958,8 +958,8 @@
     </row>
     <row r="3" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="6" t="s">
         <v>67</v>
       </c>
@@ -994,10 +994,10 @@
       <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="16" t="s">
         <v>75</v>
       </c>
       <c r="R3" s="10">
@@ -1070,8 +1070,8 @@
     </row>
     <row r="4" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="6" t="s">
         <v>67</v>
       </c>
@@ -1106,10 +1106,10 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="16" t="s">
         <v>75</v>
       </c>
       <c r="R4" s="10">
@@ -1186,8 +1186,8 @@
     </row>
     <row r="5" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="6" t="s">
         <v>67</v>
       </c>
@@ -1222,10 +1222,10 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="16" t="s">
         <v>75</v>
       </c>
       <c r="R5" s="10">
@@ -1298,8 +1298,8 @@
     </row>
     <row r="6" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="6" t="s">
         <v>67</v>
       </c>
@@ -1334,10 +1334,10 @@
       <c r="O6" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="16" t="s">
         <v>75</v>
       </c>
       <c r="R6" s="10">
@@ -1410,8 +1410,8 @@
     </row>
     <row r="7" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="6" t="s">
         <v>67</v>
       </c>
@@ -1446,10 +1446,10 @@
       <c r="O7" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="16" t="s">
         <v>75</v>
       </c>
       <c r="R7" s="10" t="s">
@@ -1521,9 +1521,9 @@
       </c>
     </row>
     <row r="8" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="7" t="s">
         <v>67</v>
       </c>
@@ -1558,10 +1558,10 @@
       <c r="O8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="16" t="s">
         <v>75</v>
       </c>
       <c r="R8" s="11" t="s">
